--- a/src/CarerExtensionTest/IO/TestFiles/TestExcelFile.xlsx
+++ b/src/CarerExtensionTest/IO/TestFiles/TestExcelFile.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="テストシート1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="テストシート2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,115 +21,99 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">テストエクセルシート</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">作成日時</t>
-  </si>
-  <si>
-    <t xml:space="preserve">作成者</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テストユーザ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">日付</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有効</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品名1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品名2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品名3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品名4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">品名5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テストエクセルシート2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">計測</t>
-  </si>
-  <si>
-    <t xml:space="preserve">予測値A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">予測値B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平均</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポイント1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポイント2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポイント3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+  <si>
+    <t xml:space="preserve">Test Excel Sheet1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert At</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Excel Sheet2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure Point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predict A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predict B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point3</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">地点ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地点名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">計測個所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">テスト棟3F会議室</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最小計測値</t>
-  </si>
-  <si>
-    <t xml:space="preserve">最大計測値</t>
+    <t xml:space="preserve">Point ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Point Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tower No.3 A Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Value</t>
   </si>
 </sst>
 </file>
@@ -141,7 +125,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="游ゴシック"/>
@@ -170,13 +154,6 @@
       <b val="true"/>
       <sz val="12"/>
       <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -242,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,7 +232,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -279,8 +256,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -289,6 +270,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -555,26 +540,26 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>19</v>
+      <c r="A7" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>1000</v>
@@ -588,8 +573,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>20</v>
+      <c r="A8" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>3000</v>
@@ -603,8 +588,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
+      <c r="A9" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="6" t="n">
         <v>4000</v>
@@ -618,8 +603,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
-        <v>18</v>
+      <c r="A10" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="n">
         <f aca="false">AVERAGE(B7:B9)</f>
@@ -629,45 +614,45 @@
         <f aca="false">AVERAGE(C7:C9)</f>
         <v>2667.66666666667</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
+      <c r="A14" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
+      <c r="A15" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>1005.1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
+      <c r="A16" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>1050.5</v>

--- a/src/CarerExtensionTest/IO/TestFiles/TestExcelFile.xlsx
+++ b/src/CarerExtensionTest/IO/TestFiles/TestExcelFile.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TestSheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="TestSheet2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="TestSheet3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t xml:space="preserve">Test Excel Sheet1</t>
   </si>
@@ -32,7 +33,13 @@
     <t xml:space="preserve">Creator</t>
   </si>
   <si>
-    <t xml:space="preserve">TestUser1</t>
+    <t xml:space="preserve">TestUser11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Excel Sheet2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser21</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -44,76 +51,49 @@
     <t xml:space="preserve">Quantity</t>
   </si>
   <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
     <t xml:space="preserve">Insert At</t>
   </si>
   <si>
     <t xml:space="preserve">Enabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Item1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Item5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test Excel Sheet2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TestUser2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measure Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predict A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Predict B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Point Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tower No.3 A Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Value</t>
+    <t xml:space="preserve">Item21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Excel Sheet3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUser32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item36</t>
   </si>
 </sst>
 </file>
@@ -219,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,24 +236,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -348,12 +312,118 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -369,131 +439,27 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>45453</v>
+      <c r="F3" s="3" t="n">
+        <v>45292</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" s="7" t="n">
-        <v>45292</v>
-      </c>
-      <c r="E7" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="n">
-        <v>45323</v>
-      </c>
-      <c r="E8" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="n">
-        <v>45352</v>
-      </c>
-      <c r="E9" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>45383</v>
-      </c>
-      <c r="E10" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>45413</v>
-      </c>
-      <c r="E11" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -510,7 +476,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -518,149 +484,352 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>45453</v>
+      <c r="F3" s="3" t="n">
+        <v>45324</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>1000</v>
+      <c r="A7" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="n">
-        <v>1001</v>
+        <v>201</v>
       </c>
       <c r="D7" s="6" t="n">
-        <f aca="false">AVERAGE(B7:C7)</f>
-        <v>1000.5</v>
+        <v>20.1</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>45333</v>
+      </c>
+      <c r="F7" s="8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>3000</v>
+      <c r="A8" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="n">
-        <v>3001</v>
+        <v>202</v>
       </c>
       <c r="D8" s="6" t="n">
-        <f aca="false">AVERAGE(B8:C8)</f>
-        <v>3000.5</v>
+        <v>20.2</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>45334</v>
+      </c>
+      <c r="F8" s="8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="6" t="n">
-        <v>4000</v>
+      <c r="A9" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4001</v>
+        <v>203</v>
       </c>
       <c r="D9" s="6" t="n">
-        <f aca="false">AVERAGE(B9:C9)</f>
-        <v>4000.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="n">
-        <f aca="false">AVERAGE(B7:B9)</f>
-        <v>2666.66666666667</v>
-      </c>
-      <c r="C10" s="6" t="n">
-        <f aca="false">AVERAGE(C7:C9)</f>
-        <v>2667.66666666667</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>1005.1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>1050.5</v>
+        <v>20.3</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>45335</v>
+      </c>
+      <c r="F9" s="8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>45354</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>301</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>3001</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>45362</v>
+      </c>
+      <c r="F7" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>302</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>3002</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>45363</v>
+      </c>
+      <c r="F8" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>303</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>3003</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>45364</v>
+      </c>
+      <c r="F9" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>304</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E15" s="7" t="n">
+        <v>45365</v>
+      </c>
+      <c r="F15" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6" t="n">
+        <v>305</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>45366</v>
+      </c>
+      <c r="F16" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6" t="n">
+        <v>306</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="E17" s="7" t="n">
+        <v>45367</v>
+      </c>
+      <c r="F17" s="8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
